--- a/data/Controller.xlsx
+++ b/data/Controller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\vodacom.payment_solution\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78263B24-60D5-4334-A298-9D5F43BC81CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041DAD00-605F-4D4C-ACBF-9C86A89324DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="3000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4"/>
     </row>
